--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_38_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_38_2.xlsx
@@ -522,52 +522,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999733607955583</v>
+        <v>0.9999107228919166</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9990409811582204</v>
+        <v>0.9989036290625306</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999916179369843</v>
+        <v>0.9996848855993076</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999573442812844</v>
+        <v>0.9998139261522053</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999676851616066</v>
+        <v>0.9997815842764322</v>
       </c>
       <c r="G2" t="n">
-        <v>2.48665280203343e-05</v>
+        <v>8.333626158370487e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0008952019927393143</v>
+        <v>0.001023414145005538</v>
       </c>
       <c r="I2" t="n">
-        <v>5.690176479791857e-06</v>
+        <v>0.0001938129195075726</v>
       </c>
       <c r="J2" t="n">
-        <v>7.427712863396735e-05</v>
+        <v>0.0003270312512141912</v>
       </c>
       <c r="K2" t="n">
-        <v>3.998294395574331e-05</v>
+        <v>0.0002604257862662831</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0004492914489073124</v>
+        <v>0.0005468647689566461</v>
       </c>
       <c r="M2" t="n">
-        <v>0.004986634939549345</v>
+        <v>0.009128869677222085</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000019373966867</v>
+        <v>1.000064928805879</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00519892631268334</v>
+        <v>0.009517504558746802</v>
       </c>
       <c r="P2" t="n">
-        <v>135.203975830056</v>
+        <v>132.7852535807661</v>
       </c>
       <c r="Q2" t="n">
-        <v>204.6798978475434</v>
+        <v>202.2611755982535</v>
       </c>
     </row>
     <row r="3">
@@ -577,52 +577,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999973033239999</v>
+        <v>0.9999107168930859</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9990239580167092</v>
+        <v>0.9989036206535601</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999899230153849</v>
+        <v>0.9996848662605348</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999485663642323</v>
+        <v>0.9998139087886053</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999610427797408</v>
+        <v>0.999781569595324</v>
       </c>
       <c r="G3" t="n">
-        <v>2.517228675700312e-05</v>
+        <v>8.334186122890904e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0009110923481104894</v>
+        <v>0.001023421994410481</v>
       </c>
       <c r="I3" t="n">
-        <v>6.840776636651631e-06</v>
+        <v>0.0001938248139306735</v>
       </c>
       <c r="J3" t="n">
-        <v>8.956226492145175e-05</v>
+        <v>0.000327061768344368</v>
       </c>
       <c r="K3" t="n">
-        <v>4.820152077905169e-05</v>
+        <v>0.0002604432911375208</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0004530299329429827</v>
+        <v>0.0005468468864962572</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00501719909481407</v>
+        <v>0.00912917637188093</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000019612189092</v>
+        <v>1.000064933168665</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005230791647314208</v>
+        <v>0.009517824310032218</v>
       </c>
       <c r="P3" t="n">
-        <v>135.1795338009213</v>
+        <v>132.7851191985181</v>
       </c>
       <c r="Q3" t="n">
-        <v>204.6554558184087</v>
+        <v>202.2610412160056</v>
       </c>
     </row>
     <row r="4">
@@ -632,52 +632,52 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999715117656072</v>
+        <v>0.999910710899222</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9990071490699645</v>
+        <v>0.9989036112973446</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999840196060216</v>
+        <v>0.999684845041666</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999390462364343</v>
+        <v>0.9998139029956628</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999527241808015</v>
+        <v>0.9997815544630372</v>
       </c>
       <c r="G4" t="n">
-        <v>2.659251631674135e-05</v>
+        <v>8.334745623774573e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0009267827620692285</v>
+        <v>0.001023430728026926</v>
       </c>
       <c r="I4" t="n">
-        <v>1.08483152398262e-05</v>
+        <v>0.0001938378647176577</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0001061398254070896</v>
+        <v>0.0003270719496423421</v>
       </c>
       <c r="K4" t="n">
-        <v>5.849407032345789e-05</v>
+        <v>0.0002604613339672549</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0004713809871753308</v>
+        <v>0.0005468369601152959</v>
       </c>
       <c r="M4" t="n">
-        <v>0.005156793220281511</v>
+        <v>0.009129482802313925</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000020718715922</v>
+        <v>1.000064937527839</v>
       </c>
       <c r="O4" t="n">
-        <v>0.005376328583702474</v>
+        <v>0.009518143785843146</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0697614464729</v>
+        <v>132.7849849365529</v>
       </c>
       <c r="Q4" t="n">
-        <v>204.5456834639603</v>
+        <v>202.2609069540403</v>
       </c>
     </row>
     <row r="5">
@@ -687,52 +687,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999691501169446</v>
+        <v>0.9999107060003851</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9989908382564333</v>
+        <v>0.9989036035232826</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999750885841485</v>
+        <v>0.9996848221050637</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999291967334218</v>
+        <v>0.9998138880746131</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999433432446643</v>
+        <v>0.9997815429403261</v>
       </c>
       <c r="G5" t="n">
-        <v>2.879701167878207e-05</v>
+        <v>8.33520290869088e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0009420081905385339</v>
+        <v>0.001023437984772613</v>
       </c>
       <c r="I5" t="n">
-        <v>1.691115329148547e-05</v>
+        <v>0.0001938519720063936</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0001232909325567493</v>
+        <v>0.0003270981739051927</v>
       </c>
       <c r="K5" t="n">
-        <v>7.010104292411741e-05</v>
+        <v>0.0002604750729557931</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0004877057003544724</v>
+        <v>0.0005468554888283416</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005366284718385904</v>
+        <v>0.009129733242921658</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000022436278586</v>
+        <v>1.000064941090629</v>
       </c>
       <c r="O5" t="n">
-        <v>0.005594738568588355</v>
+        <v>0.009518404888226032</v>
       </c>
       <c r="P5" t="n">
-        <v>134.9104778747187</v>
+        <v>132.7848752097794</v>
       </c>
       <c r="Q5" t="n">
-        <v>204.3863998922061</v>
+        <v>202.2607972272668</v>
       </c>
     </row>
     <row r="6">
@@ -742,52 +742,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999662272967899</v>
+        <v>0.9999107011271127</v>
       </c>
       <c r="C6" t="n">
-        <v>0.998975176344275</v>
+        <v>0.9989035956591744</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999641054101985</v>
+        <v>0.9996848231310954</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999193126677618</v>
+        <v>0.9998138789465063</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999333755827611</v>
+        <v>0.9997815310147716</v>
       </c>
       <c r="G6" t="n">
-        <v>3.152533599628701e-05</v>
+        <v>8.335657807281931e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0009566278980598549</v>
+        <v>0.0010234453255723</v>
       </c>
       <c r="I6" t="n">
-        <v>2.436709796371545e-05</v>
+        <v>0.0001938513409397028</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0001405022242325939</v>
+        <v>0.0003271142168700691</v>
       </c>
       <c r="K6" t="n">
-        <v>8.243396758227762e-05</v>
+        <v>0.0002604892922703589</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0005021389064999593</v>
+        <v>0.0005468419660766463</v>
       </c>
       <c r="M6" t="n">
-        <v>0.005614742736429428</v>
+        <v>0.009129982369797836</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000024561965971</v>
+        <v>1.000064944634827</v>
       </c>
       <c r="O6" t="n">
-        <v>0.005853773958838993</v>
+        <v>0.009518664620949094</v>
       </c>
       <c r="P6" t="n">
-        <v>134.7294380361602</v>
+        <v>132.7847660615839</v>
       </c>
       <c r="Q6" t="n">
-        <v>204.2053600536476</v>
+        <v>202.2606880790713</v>
       </c>
     </row>
     <row r="7">
@@ -797,52 +797,52 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999629628192178</v>
+        <v>0.9999106789476083</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9989603603802856</v>
+        <v>0.9989035606447515</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9999518276656174</v>
+        <v>0.9996847133337183</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999096314978528</v>
+        <v>0.9998138359472999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999231944349458</v>
+        <v>0.99978147674282</v>
       </c>
       <c r="G7" t="n">
-        <v>3.457258251581495e-05</v>
+        <v>8.337728166658862e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0009704579500983817</v>
+        <v>0.001023478009999199</v>
       </c>
       <c r="I7" t="n">
-        <v>3.270186391697853e-05</v>
+        <v>0.0001939188724462648</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0001573602100854001</v>
+        <v>0.000327189789469031</v>
       </c>
       <c r="K7" t="n">
-        <v>9.503103700118934e-05</v>
+        <v>0.0002605540028846927</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0005149047523944701</v>
+        <v>0.0005468091273015271</v>
       </c>
       <c r="M7" t="n">
-        <v>0.005879845449993984</v>
+        <v>0.009131116123814691</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000026936131478</v>
+        <v>1.000064960765376</v>
       </c>
       <c r="O7" t="n">
-        <v>0.006130162643758263</v>
+        <v>0.00951984664122164</v>
       </c>
       <c r="P7" t="n">
-        <v>134.5448992057266</v>
+        <v>132.7842693755741</v>
       </c>
       <c r="Q7" t="n">
-        <v>204.0208212232141</v>
+        <v>202.2601913930615</v>
       </c>
     </row>
     <row r="8">
@@ -852,987 +852,987 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999595149444583</v>
+        <v>0.9999106722233984</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9989464163759962</v>
+        <v>0.9989035483158074</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999388349006002</v>
+        <v>0.9996846932574778</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999002867156691</v>
+        <v>0.9998138185794306</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999130572067562</v>
+        <v>0.9997814602906365</v>
       </c>
       <c r="G8" t="n">
-        <v>3.779102225959943e-05</v>
+        <v>8.338355842141055e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0009834740660314193</v>
+        <v>0.001023489518527343</v>
       </c>
       <c r="I8" t="n">
-        <v>4.152202260228834e-05</v>
+        <v>0.000193931220453191</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0001736324382700711</v>
+        <v>0.0003272203141025391</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0001075737649467559</v>
+        <v>0.0002605736194799599</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0005261415361306897</v>
+        <v>0.0005467903548536413</v>
       </c>
       <c r="M8" t="n">
-        <v>0.006147440301426232</v>
+        <v>0.009131459818748071</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000029443676758</v>
+        <v>1.00006496565571</v>
       </c>
       <c r="O8" t="n">
-        <v>0.006409149562013688</v>
+        <v>0.00952020496795988</v>
       </c>
       <c r="P8" t="n">
-        <v>134.3668779798153</v>
+        <v>132.7841188185291</v>
       </c>
       <c r="Q8" t="n">
-        <v>203.8427999973027</v>
+        <v>202.2600408360165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_38_2_7</t>
+          <t>model_38_2_22</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999559946281505</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9989333792130423</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999255416814801</v>
+        <v>0.9996846921906705</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9998913707479946</v>
+        <v>0.9998138168105077</v>
       </c>
       <c r="F9" t="n">
-        <v>0.999903133713817</v>
+        <v>0.999781457185591</v>
       </c>
       <c r="G9" t="n">
-        <v>4.107708300885187e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0009956436853835655</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I9" t="n">
-        <v>5.05461450214176e-05</v>
+        <v>0.0001939318765991016</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0001891579644548584</v>
+        <v>0.0003272234230460154</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001198520396267118</v>
+        <v>0.0002605773217496032</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0005360998095540216</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M9" t="n">
-        <v>0.006409140582703103</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N9" t="n">
-        <v>1.0000320039068</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O9" t="n">
-        <v>0.006681990966058781</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P9" t="n">
-        <v>134.2001203659985</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q9" t="n">
-        <v>203.676042383486</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_38_2_8</t>
+          <t>model_38_2_21</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999524918130503</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9989212340402195</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999122845123994</v>
+        <v>0.9996846921906705</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9998829384450867</v>
+        <v>0.9998138168105077</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9998935627492714</v>
+        <v>0.999781457185591</v>
       </c>
       <c r="G10" t="n">
-        <v>4.434680714905809e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001006980671102246</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I10" t="n">
-        <v>5.954579481536125e-05</v>
+        <v>0.0001939318765991016</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0002038412769539049</v>
+        <v>0.0003272234230460154</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0001316941331680201</v>
+        <v>0.0002605773217496032</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0005471222146835993</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M10" t="n">
-        <v>0.006659339843337182</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000034551408691</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O10" t="n">
-        <v>0.006942841727201924</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P10" t="n">
-        <v>134.0469396878594</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q10" t="n">
-        <v>203.5228617053469</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_38_2_9</t>
+          <t>model_38_2_20</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999490711152826</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9989100035953844</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9998993034122149</v>
+        <v>0.9996846921906705</v>
       </c>
       <c r="E11" t="n">
-        <v>0.999875031037977</v>
+        <v>0.9998138168105077</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998844368396644</v>
+        <v>0.999781457185591</v>
       </c>
       <c r="G11" t="n">
-        <v>4.753987836401196e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001017463798396206</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I11" t="n">
-        <v>6.83580348109438e-05</v>
+        <v>0.0001939318765991016</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0002176105794702994</v>
+        <v>0.0003272234230460154</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0001429855630652848</v>
+        <v>0.0002605773217496032</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0005574981016265842</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M11" t="n">
-        <v>0.006894916849680782</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000037039188885</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O11" t="n">
-        <v>0.0071884477344172</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P11" t="n">
-        <v>133.9078833092771</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q11" t="n">
-        <v>203.3838053267645</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_38_2_10</t>
+          <t>model_38_2_19</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999457775693017</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9988996424898023</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9998867754628379</v>
+        <v>0.9996846921906705</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9998676587811793</v>
+        <v>0.9998138168105077</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998758133643886</v>
+        <v>0.999781457185591</v>
       </c>
       <c r="G12" t="n">
-        <v>5.061425896720403e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001027135435657071</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I12" t="n">
-        <v>7.686265267796521e-05</v>
+        <v>0.0001939318765991016</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0002304480156445803</v>
+        <v>0.0003272234230460154</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001536553341612728</v>
+        <v>0.0002605773217496032</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0005667876751684796</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M12" t="n">
-        <v>0.00711436989249252</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000039434495053</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O12" t="n">
-        <v>0.007417243347591859</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P12" t="n">
-        <v>133.7825544471951</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q12" t="n">
-        <v>203.2584764646825</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_38_2_11</t>
+          <t>model_38_2_18</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.999942629842994</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9988900940127776</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D13" t="n">
-        <v>0.999874787573956</v>
+        <v>0.9996846921906705</v>
       </c>
       <c r="E13" t="n">
-        <v>0.999860797340571</v>
+        <v>0.9998138168105077</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998676978242738</v>
+        <v>0.999781457185591</v>
       </c>
       <c r="G13" t="n">
-        <v>5.355252330626407e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001036048519830007</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I13" t="n">
-        <v>8.500064964015258e-05</v>
+        <v>0.0001939318765991016</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0002423959588988815</v>
+        <v>0.0003272234230460154</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00016369664031387</v>
+        <v>0.0002605773217496032</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0005751313725062062</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0073179589576783</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00004172375055</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O13" t="n">
-        <v>0.007629499620770062</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P13" t="n">
-        <v>133.669695283231</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q13" t="n">
-        <v>203.1456173007184</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_38_2_12</t>
+          <t>model_38_2_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.999939660123117</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9988813606212972</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9998634416506682</v>
+        <v>0.9996846921906705</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9998544754033336</v>
+        <v>0.9998138168105077</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998601335208531</v>
+        <v>0.999781457185591</v>
       </c>
       <c r="G14" t="n">
-        <v>5.632462645579014e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001044200757425394</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I14" t="n">
-        <v>9.270284726296838e-05</v>
+        <v>0.0001939318765991016</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0002534044557553695</v>
+        <v>0.0003272234230460154</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001730559048117561</v>
+        <v>0.0002605773217496032</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0005826010605919292</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M14" t="n">
-        <v>0.007504973448040316</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000043883546824</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O14" t="n">
-        <v>0.007824475705160152</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P14" t="n">
-        <v>133.5687574072226</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q14" t="n">
-        <v>203.0446794247101</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_38_2_13</t>
+          <t>model_38_2_16</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999368756879621</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9988733588757592</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9998527990495443</v>
+        <v>0.9996846921906705</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9998486463566609</v>
+        <v>0.9998138168105077</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998531139835038</v>
+        <v>0.999781457185591</v>
       </c>
       <c r="G15" t="n">
-        <v>5.892377445034574e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001051670035648962</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I15" t="n">
-        <v>9.992759354402185e-05</v>
+        <v>0.0001939318765991016</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0002635546738868242</v>
+        <v>0.0003272234230460154</v>
       </c>
       <c r="K15" t="n">
-        <v>0.000181741133715423</v>
+        <v>0.0002605773217496032</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0005892533536446521</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M15" t="n">
-        <v>0.007676182283553833</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000045908590573</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O15" t="n">
-        <v>0.008002973255252628</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P15" t="n">
-        <v>133.4785318156503</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q15" t="n">
-        <v>202.9544538331377</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_38_2_14</t>
+          <t>model_38_2_15</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999342778565485</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9988660609945366</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9998428533216159</v>
+        <v>0.9996846921906705</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9998432938472722</v>
+        <v>0.9998138168105077</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998466210456362</v>
+        <v>0.999781457185591</v>
       </c>
       <c r="G16" t="n">
-        <v>6.134873604330529e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001058482287430437</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001066792663752122</v>
+        <v>0.0001939318765991016</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0002728750895391983</v>
+        <v>0.0003272234230460154</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001897748044307872</v>
+        <v>0.0002605773217496032</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0005953561892507128</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M16" t="n">
-        <v>0.007832543395558385</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N16" t="n">
-        <v>1.00004779792251</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O16" t="n">
-        <v>0.008165990983507338</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P16" t="n">
-        <v>133.3978719788214</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q16" t="n">
-        <v>202.8737939963088</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_38_2_15</t>
+          <t>model_38_2_12</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999318553422495</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9988593753190744</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D17" t="n">
-        <v>0.999833568766815</v>
+        <v>0.9996846921906705</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9998383753842739</v>
+        <v>0.9998138168105077</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998406110798876</v>
+        <v>0.999781457185591</v>
       </c>
       <c r="G17" t="n">
-        <v>6.361004680528461e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001064723072007064</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001129821008033758</v>
+        <v>0.0001939318765991016</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0002814396928281636</v>
+        <v>0.0003272234230460154</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001972108968157697</v>
+        <v>0.0002605773217496032</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0006015902491533926</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M17" t="n">
-        <v>0.007975590686919973</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000049559751091</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O17" t="n">
-        <v>0.008315128094210903</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P17" t="n">
-        <v>133.3254782629148</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.8014002804022</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_38_2_16</t>
+          <t>model_38_2_13</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999296182647325</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9988532929342949</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9998249936220706</v>
+        <v>0.9996846921906705</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9998338844382101</v>
+        <v>0.9998138168105077</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9998350964833876</v>
+        <v>0.999781457185591</v>
       </c>
       <c r="G18" t="n">
-        <v>6.569826047113979e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001070400711212917</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001188033511142634</v>
+        <v>0.0001939318765991016</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0002892598536064847</v>
+        <v>0.0003272234230460154</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0002040340719810822</v>
+        <v>0.0002605773217496032</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0006071989049964203</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M18" t="n">
-        <v>0.008105446346200794</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000051186716558</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00845051197774558</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P18" t="n">
-        <v>133.2608762193428</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q18" t="n">
-        <v>202.7367982368303</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_38_2_17</t>
+          <t>model_38_2_23</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999275576668255</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9988477684866566</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9998170835115872</v>
+        <v>0.9996846921906705</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9998297819567352</v>
+        <v>0.9998138168105077</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999830041671851</v>
+        <v>0.999781457185591</v>
       </c>
       <c r="G19" t="n">
-        <v>6.762173816751079e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001075557540588045</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001241731418854455</v>
+        <v>0.0001939318765991016</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0002964035743877154</v>
+        <v>0.0003272234230460154</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0002102883581365804</v>
+        <v>0.0002605773217496032</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0006122152073241253</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M19" t="n">
-        <v>0.008223243774053569</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000052685333218</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O19" t="n">
-        <v>0.00857332428597634</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P19" t="n">
-        <v>133.2031621121655</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.6790841296529</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_38_2_18</t>
+          <t>model_38_2_11</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999256620734466</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9988427395076874</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9998097984394863</v>
+        <v>0.9996846921906705</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9998260463994313</v>
+        <v>0.9998138168105077</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998254145277256</v>
+        <v>0.999781457185591</v>
       </c>
       <c r="G20" t="n">
-        <v>6.939119137976388e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001080251871709126</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I20" t="n">
-        <v>0.000129118624381233</v>
+        <v>0.0001939318765991016</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0003029083638682568</v>
+        <v>0.0003272234230460154</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0002160134941247449</v>
+        <v>0.0002605773217496032</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0006167539811851683</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M20" t="n">
-        <v>0.008330137536665519</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000054063946584</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O20" t="n">
-        <v>0.008684768737363275</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P20" t="n">
-        <v>133.1515012477417</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6274232652291</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_38_2_19</t>
+          <t>model_38_2_10</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999239242179851</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C21" t="n">
-        <v>0.998838176141463</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9998031149017896</v>
+        <v>0.9996846921906705</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9998226434187348</v>
+        <v>0.9998138168105077</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998211890864597</v>
+        <v>0.999781457185591</v>
       </c>
       <c r="G21" t="n">
-        <v>7.101340317000351e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001084511573771032</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001336557543135828</v>
+        <v>0.0001939318765991016</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0003088340320445183</v>
+        <v>0.0003272234230460154</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0002212416057205753</v>
+        <v>0.0002605773217496032</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0006208459468999934</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M21" t="n">
-        <v>0.008426945067460894</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000055327841465</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O21" t="n">
-        <v>0.008785697565163824</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P21" t="n">
-        <v>133.1052838433936</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q21" t="n">
-        <v>202.581205860881</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_38_2_20</t>
+          <t>model_38_2_9</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999223335023835</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9988340416775745</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9997969956709286</v>
+        <v>0.9996846921906705</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9998195566206737</v>
+        <v>0.9998138168105077</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998173351461084</v>
+        <v>0.999781457185591</v>
       </c>
       <c r="G22" t="n">
-        <v>7.249826635979058e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001088370914328898</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001378098036752467</v>
+        <v>0.0001939318765991016</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0003142091260191812</v>
+        <v>0.0003272234230460154</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0002260100615983483</v>
+        <v>0.0002605773217496032</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0006245149158753572</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M22" t="n">
-        <v>0.008514591379496176</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000056484725539</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O22" t="n">
-        <v>0.008877075162155324</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P22" t="n">
-        <v>133.0638958173366</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.539817834824</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_38_2_21</t>
+          <t>model_38_2_8</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999208798001196</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9988302945624261</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9997913930783364</v>
+        <v>0.9996846921906705</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9998167506278919</v>
+        <v>0.9998138168105077</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998138241532981</v>
+        <v>0.999781457185591</v>
       </c>
       <c r="G23" t="n">
-        <v>7.38552336129638e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001091868681840625</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I23" t="n">
-        <v>0.000141613132346811</v>
+        <v>0.0001939318765991016</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0003190952489841193</v>
+        <v>0.0003272234230460154</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0002303541906654652</v>
+        <v>0.0002605773217496032</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0006278362731085957</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M23" t="n">
-        <v>0.008593906772415198</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000057541963549</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O23" t="n">
-        <v>0.008959767175556407</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P23" t="n">
-        <v>133.0268073666935</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q23" t="n">
-        <v>202.5027293841809</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_38_2_22</t>
+          <t>model_38_2_7</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.999919554287234</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9988269024465143</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9997862888622678</v>
+        <v>0.9996846921906705</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998142024319692</v>
+        <v>0.9998138168105077</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998106308038531</v>
+        <v>0.999781457185591</v>
       </c>
       <c r="G24" t="n">
-        <v>7.509254170834087e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001095035073147631</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001450781373422443</v>
+        <v>0.0001939318765991016</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0003235324658927483</v>
+        <v>0.0003272234230460154</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0002343053016174963</v>
+        <v>0.0002605773217496032</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0006308034935571209</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M24" t="n">
-        <v>0.00866559528874623</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000058505972921</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O24" t="n">
-        <v>0.00903450762044334</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P24" t="n">
-        <v>132.9935786311988</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q24" t="n">
-        <v>202.4695006486862</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_38_2_23</t>
+          <t>model_38_2_14</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999183486632068</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9988238334741814</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9997816341667689</v>
+        <v>0.9996846921906705</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9998118995642203</v>
+        <v>0.9998138168105077</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998077333602322</v>
+        <v>0.999781457185591</v>
       </c>
       <c r="G25" t="n">
-        <v>7.621793881696791e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001097899824108058</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001482379846017096</v>
+        <v>0.0001939318765991016</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0003275424886787807</v>
+        <v>0.0003272234230460154</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0002378902901760091</v>
+        <v>0.0002605773217496032</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0006334826558999868</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M25" t="n">
-        <v>0.008730288587267199</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000059382790395</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O25" t="n">
-        <v>0.009101955046615935</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P25" t="n">
-        <v>132.9638274108651</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.4397494283525</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999172525622662</v>
+        <v>0.9999106709542923</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9988210568685898</v>
+        <v>0.9989035467838921</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9997774125490674</v>
+        <v>0.9996846921906705</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9998098094540112</v>
+        <v>0.9998138168105077</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998051045222115</v>
+        <v>0.999781457185591</v>
       </c>
       <c r="G26" t="n">
-        <v>7.724110093176906e-05</v>
+        <v>8.338474307615185e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.00110049166354888</v>
+        <v>0.001023490948502973</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001511038363266245</v>
+        <v>0.0001939318765991016</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0003311820331417338</v>
+        <v>0.0003272234230460154</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0002411429347341792</v>
+        <v>0.0002605773217496032</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0006358856201021554</v>
+        <v>0.0005467859721176896</v>
       </c>
       <c r="M26" t="n">
-        <v>0.00878869165073898</v>
+        <v>0.009131524685185483</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000060179954716</v>
+        <v>1.000064966578696</v>
       </c>
       <c r="O26" t="n">
-        <v>0.009162844449410719</v>
+        <v>0.009520272595895827</v>
       </c>
       <c r="P26" t="n">
-        <v>132.937157694233</v>
+        <v>132.7840904041427</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.4130797117204</v>
+        <v>202.2600124216301</v>
       </c>
     </row>
   </sheetData>
